--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364672.7267601441</v>
+        <v>354193.2706834388</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15478767.26682848</v>
+        <v>15478767.26682849</v>
       </c>
     </row>
     <row r="9">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25.66137551878157</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E12" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.49179773586701</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U12" t="n">
-        <v>87.42401492594934</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>116.8234155649305</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.4303652576383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="16">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V16" t="n">
-        <v>13.60633383892372</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>107.3621491644612</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V18" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="X19" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="H20" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>25.66137551878156</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X21" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="Y21" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>47.48145571869507</v>
+        <v>394.9086748034193</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>206.4909970686388</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>110.8344088861765</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.8894546060356</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>83.77514255594413</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.3572846195666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>110.0243485932371</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U24" t="n">
         <v>207.8790749752666</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>1.400994656087126</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5082626466225</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.4705000808663</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.8188809860355</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5264083469766</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>86.22156285720303</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>363.5403908895866</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>394.9086748034193</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.8894546060356</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>142.6110344821369</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -2642,19 +2642,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>63.57891555808738</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.5909786731084</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.16590342491256</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5.2280637087133</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>207.8790749752666</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>92.59076651305779</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>1.400994656088027</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.3221546333061</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.4705000808663</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.78863233677922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.2583627927862</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>228.8188809860355</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5264083469766</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>370.2205603794248</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>355.8833619029874</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>45.57140258928914</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2876,19 +2876,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>42.08862216627013</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.5909786731084</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>75.16590342491256</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8790749752666</v>
       </c>
       <c r="V30" t="n">
-        <v>60.5698970695906</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
@@ -2961,13 +2961,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5082626466225</v>
       </c>
       <c r="H31" t="n">
-        <v>144.4705000808663</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>99.78863233677922</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>112.2666082265193</v>
       </c>
       <c r="X31" t="n">
-        <v>86.2215628572028</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>110.5348154261925</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>394.9086748034193</v>
       </c>
       <c r="G32" t="n">
-        <v>98.89029188952564</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>296.567025797109</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>45.57140258928914</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0055754633941</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>45.583345388311</v>
       </c>
       <c r="G33" t="n">
         <v>117.5909786731084</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8790749752666</v>
       </c>
       <c r="V33" t="n">
-        <v>55.3418333608776</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>114.2571747934179</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -3198,13 +3198,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>137.4757060188044</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.4705000808663</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>74.85436096442217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>45.57140258928914</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>210.8894546060356</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0055754633941</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>204.9850225238349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>10.54279762218938</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>81.21196170854139</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.5909786731084</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.2280637087133</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>110.0243485932371</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8790749752666</v>
+        <v>97.6071420466358</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3410,7 +3410,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>7.650591492275298</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>125.5609959369868</v>
+        <v>165.5082626466225</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>99.78863233677922</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>74.85436096442217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>182.2583627927862</v>
       </c>
       <c r="T37" t="n">
         <v>228.8188809860355</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5264083469766</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>193.1690397607187</v>
       </c>
       <c r="E38" t="n">
-        <v>265.3386332970614</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>110.8344088861765</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.8894546060356</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33.13694132448018</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.5909786731084</v>
       </c>
       <c r="H39" t="n">
         <v>75.16590342491256</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>110.0243485932371</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.8790749752666</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>40.10482896781359</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3663,16 +3663,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5082626466225</v>
@@ -3681,7 +3681,7 @@
         <v>144.4705000808663</v>
       </c>
       <c r="I40" t="n">
-        <v>99.78863233677922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>182.2583627927862</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.8188809860355</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>175.5291806000419</v>
       </c>
       <c r="X40" t="n">
-        <v>86.2215628572028</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>394.9086748034193</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>394.9086748034195</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>355.8833619029872</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>377.8380637036901</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>82.34264466958442</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>20.14522464206236</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.5909786731084</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.0243485932371</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>207.8790749752666</v>
@@ -3887,7 +3887,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>85.68856286027072</v>
+        <v>165.5082626466225</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.4705000808663</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>26.52391112002895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>74.85436096442217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>182.2583627927862</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>228.8188809860355</v>
@@ -3957,16 +3957,16 @@
         <v>282.5264083469766</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>394.9086748034194</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>90.62163369372665</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>296.567025797109</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>359.5690293688119</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4064,7 +4064,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -4109,22 +4109,22 @@
         <v>110.0243485932371</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8790749752666</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>137.9595553498425</v>
+        <v>2.545278439865156</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>118.415341297153</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5082626466225</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.8188809860355</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5264083469766</v>
@@ -4197,13 +4197,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>22.13171370917664</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H11" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J11" t="n">
         <v>13.67191254441019</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388291</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L11" t="n">
-        <v>124.7183011151465</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730481</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990626</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913163</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R11" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S11" t="n">
-        <v>364.4436663717158</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T11" t="n">
-        <v>241.320806111001</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U11" t="n">
-        <v>241.320806111001</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V11" t="n">
-        <v>241.320806111001</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W11" t="n">
-        <v>118.1979458502862</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="X11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y11" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="C12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="D12" t="n">
-        <v>278.7160386660652</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E12" t="n">
-        <v>155.5931784053503</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="F12" t="n">
-        <v>32.4703181446355</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="G12" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H12" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L12" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905289</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R12" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S12" t="n">
-        <v>367.0231244498524</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T12" t="n">
-        <v>367.0231244498524</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y12" t="n">
-        <v>278.7160386660652</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.5665266324307</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C13" t="n">
-        <v>487.5665266324307</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D13" t="n">
-        <v>487.5665266324307</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E13" t="n">
-        <v>487.5665266324307</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F13" t="n">
-        <v>364.4436663717158</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G13" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H13" t="n">
-        <v>123.3173560454146</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J13" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K13" t="n">
-        <v>130.4240458741752</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L13" t="n">
-        <v>220.6248741737976</v>
+        <v>67.96966285689246</v>
       </c>
       <c r="M13" t="n">
-        <v>230.992549211911</v>
+        <v>188.6423781984193</v>
       </c>
       <c r="N13" t="n">
-        <v>246.2210959493775</v>
+        <v>309.3150935399461</v>
       </c>
       <c r="O13" t="n">
-        <v>366.8938112909041</v>
+        <v>310.1776134672583</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5665266324307</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T13" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U13" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V13" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W13" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X13" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5665266324307</v>
+        <v>132.8741907933637</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="C14" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441032</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K14" t="n">
         <v>52.52788553388308</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151467</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919086</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730482</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O14" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913163</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S14" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="T14" t="n">
-        <v>241.320806111001</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U14" t="n">
-        <v>132.8741907933635</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V14" t="n">
-        <v>9.751330532648614</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="W14" t="n">
-        <v>9.751330532648614</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="X14" t="n">
-        <v>9.751330532648614</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>364.4436663717158</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C15" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D15" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905284</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P15" t="n">
-        <v>480.739349156108</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U15" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V15" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W15" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X15" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.5665266324307</v>
+        <v>118.1979458502864</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J16" t="n">
-        <v>9.751330532648614</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K16" t="n">
-        <v>9.751330532648614</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="L16" t="n">
-        <v>130.4240458741752</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="M16" t="n">
-        <v>251.0967612157018</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7694765572284</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O16" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P16" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R16" t="n">
-        <v>392.8636828692615</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S16" t="n">
-        <v>269.7408226085467</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T16" t="n">
-        <v>146.6179623478318</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U16" t="n">
-        <v>23.49510208711702</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V16" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="W16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J17" t="n">
         <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388285</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919083</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730479</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990617</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913162</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S17" t="n">
-        <v>379.1199113147931</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="T17" t="n">
-        <v>255.9970510540783</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U17" t="n">
-        <v>132.8741907933635</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V17" t="n">
-        <v>9.751330532648614</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="W17" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X17" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="C18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="D18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="E18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065733</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L18" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P18" t="n">
-        <v>480.739349156108</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S18" t="n">
-        <v>379.1199113147931</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T18" t="n">
-        <v>255.9970510540783</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U18" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V18" t="n">
-        <v>9.751330532648614</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="X18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502864</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>255.9970510540783</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C19" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D19" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E19" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J19" t="n">
-        <v>24.97459687068093</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K19" t="n">
-        <v>24.97459687068093</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L19" t="n">
-        <v>145.6473122122075</v>
+        <v>153.4717675450553</v>
       </c>
       <c r="M19" t="n">
-        <v>266.3200275537341</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N19" t="n">
-        <v>310.1776134672576</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O19" t="n">
-        <v>430.8503288087842</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P19" t="n">
-        <v>430.8503288087842</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R19" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S19" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T19" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U19" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V19" t="n">
-        <v>487.5665266324307</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="W19" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X19" t="n">
-        <v>379.1199113147931</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.9970510540783</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.4002247788984</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C20" t="n">
-        <v>215.4002247788984</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D20" t="n">
-        <v>215.4002247788984</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="E20" t="n">
-        <v>215.4002247788984</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="F20" t="n">
-        <v>215.4002247788984</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="G20" t="n">
-        <v>215.4002247788984</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H20" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441013</v>
+        <v>13.67191254441024</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388313</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151467</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730482</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O20" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990626</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913163</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V20" t="n">
-        <v>461.6459453003281</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W20" t="n">
-        <v>338.5230850396132</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="X20" t="n">
-        <v>215.4002247788984</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.4002247788984</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561081</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U21" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V21" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W21" t="n">
-        <v>364.4436663717158</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="X21" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y21" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E22" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F22" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J22" t="n">
-        <v>24.97459687068093</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K22" t="n">
-        <v>24.97459687068093</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L22" t="n">
-        <v>145.6473122122075</v>
+        <v>130.4240458741754</v>
       </c>
       <c r="M22" t="n">
-        <v>266.3200275537341</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N22" t="n">
-        <v>310.1776134672576</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O22" t="n">
-        <v>430.8503288087842</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P22" t="n">
-        <v>430.8503288087842</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S22" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="T22" t="n">
-        <v>241.320806111001</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U22" t="n">
-        <v>241.320806111001</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V22" t="n">
-        <v>241.320806111001</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.320806111001</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>858.1703906471955</v>
+        <v>1024.508238799988</v>
       </c>
       <c r="C23" t="n">
-        <v>464.9948891501261</v>
+        <v>1024.508238799988</v>
       </c>
       <c r="D23" t="n">
-        <v>79.55376036679382</v>
+        <v>639.0671100166555</v>
       </c>
       <c r="E23" t="n">
-        <v>31.59269398427355</v>
+        <v>240.1694587000703</v>
       </c>
       <c r="F23" t="n">
-        <v>31.59269398427355</v>
+        <v>240.1694587000703</v>
       </c>
       <c r="G23" t="n">
         <v>31.59269398427355</v>
@@ -5989,16 +5989,16 @@
         <v>31.59269398427355</v>
       </c>
       <c r="J23" t="n">
-        <v>114.2570890984369</v>
+        <v>114.2570890984368</v>
       </c>
       <c r="K23" t="n">
-        <v>271.1296257006243</v>
+        <v>271.1296257006242</v>
       </c>
       <c r="L23" t="n">
-        <v>489.7300241818691</v>
+        <v>489.7300241818689</v>
       </c>
       <c r="M23" t="n">
-        <v>753.550221618422</v>
+        <v>753.5502216184223</v>
       </c>
       <c r="N23" t="n">
         <v>1024.638281111265</v>
@@ -6016,25 +6016,25 @@
         <v>1579.634699213677</v>
       </c>
       <c r="S23" t="n">
-        <v>1467.680750843802</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T23" t="n">
-        <v>1254.661099726594</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="U23" t="n">
-        <v>1254.661099726594</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="V23" t="n">
-        <v>1254.661099726594</v>
+        <v>1024.508238799988</v>
       </c>
       <c r="W23" t="n">
-        <v>1254.661099726594</v>
+        <v>1024.508238799988</v>
       </c>
       <c r="X23" t="n">
-        <v>1254.661099726594</v>
+        <v>1024.508238799988</v>
       </c>
       <c r="Y23" t="n">
-        <v>858.1703906471955</v>
+        <v>1024.508238799988</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>396.5809590912086</v>
+        <v>292.9391954628479</v>
       </c>
       <c r="C24" t="n">
-        <v>245.9267286513008</v>
+        <v>142.2849650229401</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3053725341855</v>
+        <v>142.2849650229401</v>
       </c>
       <c r="E24" t="n">
-        <v>161.3053725341855</v>
+        <v>142.2849650229401</v>
       </c>
       <c r="F24" t="n">
-        <v>36.87356641731729</v>
+        <v>142.2849650229401</v>
       </c>
       <c r="G24" t="n">
         <v>36.87356641731729</v>
@@ -6095,25 +6095,25 @@
         <v>1579.634699213677</v>
       </c>
       <c r="S24" t="n">
-        <v>1579.634699213677</v>
+        <v>1468.498993563943</v>
       </c>
       <c r="T24" t="n">
-        <v>1579.634699213677</v>
+        <v>1296.678718660824</v>
       </c>
       <c r="U24" t="n">
-        <v>1369.655835602297</v>
+        <v>1086.699855049444</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.115833973364</v>
+        <v>864.1598534205107</v>
       </c>
       <c r="W24" t="n">
-        <v>916.9985881066509</v>
+        <v>634.0426075537976</v>
       </c>
       <c r="X24" t="n">
-        <v>727.6915104566626</v>
+        <v>444.7355299038092</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.3772935321699</v>
+        <v>444.7355299038092</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1084.222131604471</v>
+        <v>279.7342364829934</v>
       </c>
       <c r="C25" t="n">
-        <v>914.0170136704601</v>
+        <v>279.7342364829934</v>
       </c>
       <c r="D25" t="n">
-        <v>758.3839005729749</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="E25" t="n">
-        <v>602.8250884321774</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="F25" t="n">
-        <v>445.4991536451504</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="G25" t="n">
         <v>278.3190903657337</v>
@@ -6153,19 +6153,19 @@
         <v>70.86775958236754</v>
       </c>
       <c r="L25" t="n">
-        <v>391.4910191833231</v>
+        <v>325.3983851259258</v>
       </c>
       <c r="M25" t="n">
-        <v>742.785286218869</v>
+        <v>676.6926521614716</v>
       </c>
       <c r="N25" t="n">
-        <v>1087.054213809282</v>
+        <v>1020.961579751885</v>
       </c>
       <c r="O25" t="n">
-        <v>1240.884528447938</v>
+        <v>1332.449145834672</v>
       </c>
       <c r="P25" t="n">
-        <v>1488.070081826943</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="Q25" t="n">
         <v>1579.634699213677</v>
@@ -6177,22 +6177,22 @@
         <v>1579.634699213677</v>
       </c>
       <c r="T25" t="n">
-        <v>1579.634699213677</v>
+        <v>1348.5045163995</v>
       </c>
       <c r="U25" t="n">
-        <v>1579.634699213677</v>
+        <v>1063.124305948008</v>
       </c>
       <c r="V25" t="n">
-        <v>1579.634699213677</v>
+        <v>797.1449607688327</v>
       </c>
       <c r="W25" t="n">
-        <v>1579.634699213677</v>
+        <v>513.8145587000104</v>
       </c>
       <c r="X25" t="n">
-        <v>1492.542211479129</v>
+        <v>279.7342364829934</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.430150295772</v>
+        <v>279.7342364829934</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>815.931474084191</v>
+        <v>1222.563498114514</v>
       </c>
       <c r="C26" t="n">
-        <v>815.931474084191</v>
+        <v>829.3879966174445</v>
       </c>
       <c r="D26" t="n">
-        <v>430.4903453008587</v>
+        <v>829.3879966174445</v>
       </c>
       <c r="E26" t="n">
-        <v>31.59269398427355</v>
+        <v>430.490345300859</v>
       </c>
       <c r="F26" t="n">
-        <v>31.59269398427355</v>
+        <v>430.490345300859</v>
       </c>
       <c r="G26" t="n">
-        <v>31.59269398427355</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="H26" t="n">
-        <v>31.59269398427355</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I26" t="n">
-        <v>31.59269398427355</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J26" t="n">
-        <v>114.2570890984368</v>
+        <v>114.2570890984375</v>
       </c>
       <c r="K26" t="n">
-        <v>271.1296257006242</v>
+        <v>271.129625700625</v>
       </c>
       <c r="L26" t="n">
-        <v>489.7300241818689</v>
+        <v>489.7300241818699</v>
       </c>
       <c r="M26" t="n">
-        <v>753.5502216184224</v>
+        <v>753.5502216184232</v>
       </c>
       <c r="N26" t="n">
-        <v>1024.638281111265</v>
+        <v>1024.638281111266</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.951128727179</v>
+        <v>1271.95112872718</v>
       </c>
       <c r="P26" t="n">
         <v>1460.601271824091</v>
       </c>
       <c r="Q26" t="n">
-        <v>1570.957387474053</v>
+        <v>1570.957387474054</v>
       </c>
       <c r="R26" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S26" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T26" t="n">
-        <v>1579.634699213677</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="U26" t="n">
-        <v>1579.634699213677</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="V26" t="n">
-        <v>1579.634699213677</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="W26" t="n">
-        <v>1579.634699213677</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="X26" t="n">
-        <v>1579.634699213677</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.143990134279</v>
+        <v>1222.563498114514</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>773.1989825528575</v>
+        <v>376.5570186290519</v>
       </c>
       <c r="C27" t="n">
-        <v>622.5447521129497</v>
+        <v>225.9027881891441</v>
       </c>
       <c r="D27" t="n">
-        <v>492.45578473443</v>
+        <v>95.81382081062446</v>
       </c>
       <c r="E27" t="n">
-        <v>356.0092938453178</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="F27" t="n">
-        <v>231.5774877284496</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="G27" t="n">
-        <v>112.7987213919764</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="H27" t="n">
-        <v>36.87356641731729</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I27" t="n">
-        <v>31.59269398427355</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J27" t="n">
-        <v>68.59544088442392</v>
+        <v>263.3304358641514</v>
       </c>
       <c r="K27" t="n">
-        <v>442.2612048231067</v>
+        <v>377.3746600985219</v>
       </c>
       <c r="L27" t="n">
-        <v>625.7173899884806</v>
+        <v>680.2310699985519</v>
       </c>
       <c r="M27" t="n">
-        <v>852.3840693192127</v>
+        <v>906.897749329284</v>
       </c>
       <c r="N27" t="n">
-        <v>1094.415560379311</v>
+        <v>1148.929240389382</v>
       </c>
       <c r="O27" t="n">
-        <v>1301.384223130291</v>
+        <v>1355.897903140363</v>
       </c>
       <c r="P27" t="n">
-        <v>1454.928328609447</v>
+        <v>1509.442008619519</v>
       </c>
       <c r="Q27" t="n">
-        <v>1525.121019203607</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="R27" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S27" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T27" t="n">
-        <v>1407.814424310558</v>
+        <v>1407.814424310559</v>
       </c>
       <c r="U27" t="n">
-        <v>1197.835560699178</v>
+        <v>1197.835560699179</v>
       </c>
       <c r="V27" t="n">
-        <v>1197.835560699178</v>
+        <v>975.2955590702461</v>
       </c>
       <c r="W27" t="n">
-        <v>1197.835560699178</v>
+        <v>745.178313203533</v>
       </c>
       <c r="X27" t="n">
-        <v>1104.309533918312</v>
+        <v>555.8712355535447</v>
       </c>
       <c r="Y27" t="n">
-        <v>924.9953169938188</v>
+        <v>376.5570186290519</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>979.197141351849</v>
+        <v>279.7342364829943</v>
       </c>
       <c r="C28" t="n">
-        <v>808.9920234178383</v>
+        <v>279.7342364829943</v>
       </c>
       <c r="D28" t="n">
-        <v>653.3589103203531</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="E28" t="n">
-        <v>497.8000981795556</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="F28" t="n">
-        <v>340.4741633925285</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="G28" t="n">
-        <v>177.5224920457547</v>
+        <v>278.3190903657337</v>
       </c>
       <c r="H28" t="n">
-        <v>31.59269398427355</v>
+        <v>132.3892923042526</v>
       </c>
       <c r="I28" t="n">
-        <v>31.59269398427355</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J28" t="n">
-        <v>76.23905867667897</v>
+        <v>76.23905867667898</v>
       </c>
       <c r="K28" t="n">
         <v>280.3691970174543</v>
       </c>
       <c r="L28" t="n">
-        <v>499.1890496337786</v>
+        <v>600.99245661841</v>
       </c>
       <c r="M28" t="n">
-        <v>850.4833166693245</v>
+        <v>676.596403345408</v>
       </c>
       <c r="N28" t="n">
-        <v>929.3969623651506</v>
+        <v>929.3969623651515</v>
       </c>
       <c r="O28" t="n">
-        <v>1240.884528447938</v>
+        <v>1240.884528447939</v>
       </c>
       <c r="P28" t="n">
-        <v>1488.070081826943</v>
+        <v>1488.070081826944</v>
       </c>
       <c r="Q28" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="R28" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S28" t="n">
-        <v>1395.535342857328</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.40516004315</v>
+        <v>1348.504516399501</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.40516004315</v>
+        <v>1063.124305948009</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.40516004315</v>
+        <v>797.1449607688336</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.40516004315</v>
+        <v>513.8145587000113</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.40516004315</v>
+        <v>279.7342364829943</v>
       </c>
       <c r="Y28" t="n">
-        <v>1164.40516004315</v>
+        <v>279.7342364829943</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.62441377143429</v>
+        <v>784.246338817694</v>
       </c>
       <c r="C29" t="n">
-        <v>77.62441377143429</v>
+        <v>391.0708373206245</v>
       </c>
       <c r="D29" t="n">
-        <v>77.62441377143429</v>
+        <v>391.0708373206245</v>
       </c>
       <c r="E29" t="n">
-        <v>77.62441377143429</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="F29" t="n">
-        <v>77.62441377143429</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="G29" t="n">
-        <v>77.62441377143429</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="H29" t="n">
-        <v>77.62441377143429</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I29" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J29" t="n">
-        <v>114.2570890984368</v>
+        <v>114.2570890984375</v>
       </c>
       <c r="K29" t="n">
-        <v>271.1296257006242</v>
+        <v>271.129625700625</v>
       </c>
       <c r="L29" t="n">
-        <v>489.7300241818689</v>
+        <v>489.7300241818697</v>
       </c>
       <c r="M29" t="n">
-        <v>753.5502216184223</v>
+        <v>753.5502216184232</v>
       </c>
       <c r="N29" t="n">
-        <v>1024.638281111265</v>
+        <v>1024.638281111266</v>
       </c>
       <c r="O29" t="n">
-        <v>1271.951128727179</v>
+        <v>1271.95112872718</v>
       </c>
       <c r="P29" t="n">
-        <v>1460.60127182409</v>
+        <v>1460.601271824092</v>
       </c>
       <c r="Q29" t="n">
-        <v>1570.957387474053</v>
+        <v>1570.957387474054</v>
       </c>
       <c r="R29" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S29" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T29" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="U29" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="V29" t="n">
-        <v>1237.527889917195</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="W29" t="n">
-        <v>1237.527889917195</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="X29" t="n">
-        <v>848.0752848502522</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="Y29" t="n">
-        <v>451.5845757708533</v>
+        <v>1183.143990134279</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>767.9181101198138</v>
+        <v>224.7606841880906</v>
       </c>
       <c r="C30" t="n">
-        <v>617.263879679906</v>
+        <v>74.10645374818279</v>
       </c>
       <c r="D30" t="n">
-        <v>487.1749123013863</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="E30" t="n">
-        <v>350.728421412274</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="F30" t="n">
-        <v>226.2966152954058</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="G30" t="n">
-        <v>107.5178489589327</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="H30" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I30" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J30" t="n">
-        <v>68.59544088442392</v>
+        <v>68.59544088442394</v>
       </c>
       <c r="K30" t="n">
         <v>182.6396651187945</v>
@@ -6554,40 +6554,40 @@
         <v>592.7625296149005</v>
       </c>
       <c r="N30" t="n">
-        <v>983.7221176702856</v>
+        <v>834.7940206749984</v>
       </c>
       <c r="O30" t="n">
-        <v>1190.690780421266</v>
+        <v>1041.762683425979</v>
       </c>
       <c r="P30" t="n">
-        <v>1344.234885900423</v>
+        <v>1195.306788905135</v>
       </c>
       <c r="Q30" t="n">
-        <v>1525.121019203607</v>
+        <v>1525.121019203608</v>
       </c>
       <c r="R30" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S30" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T30" t="n">
-        <v>1579.634699213677</v>
+        <v>1407.814424310559</v>
       </c>
       <c r="U30" t="n">
-        <v>1579.634699213677</v>
+        <v>1197.835560699179</v>
       </c>
       <c r="V30" t="n">
-        <v>1518.452985001969</v>
+        <v>975.2955590702461</v>
       </c>
       <c r="W30" t="n">
-        <v>1288.335739135256</v>
+        <v>745.178313203533</v>
       </c>
       <c r="X30" t="n">
-        <v>1099.028661485268</v>
+        <v>555.8712355535447</v>
       </c>
       <c r="Y30" t="n">
-        <v>919.7144445607752</v>
+        <v>376.5570186290519</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1084.222131604471</v>
+        <v>780.9663987559628</v>
       </c>
       <c r="C31" t="n">
-        <v>914.0170136704601</v>
+        <v>610.761280821952</v>
       </c>
       <c r="D31" t="n">
-        <v>758.3839005729749</v>
+        <v>455.1281677244668</v>
       </c>
       <c r="E31" t="n">
-        <v>602.8250884321774</v>
+        <v>299.5693555836693</v>
       </c>
       <c r="F31" t="n">
-        <v>445.4991536451504</v>
+        <v>299.5693555836693</v>
       </c>
       <c r="G31" t="n">
-        <v>278.3190903657337</v>
+        <v>132.3892923042526</v>
       </c>
       <c r="H31" t="n">
         <v>132.3892923042526</v>
       </c>
       <c r="I31" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J31" t="n">
-        <v>76.23905867667897</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="K31" t="n">
-        <v>280.3691970174543</v>
+        <v>235.722832325049</v>
       </c>
       <c r="L31" t="n">
-        <v>577.1999346613944</v>
+        <v>556.3460919260046</v>
       </c>
       <c r="M31" t="n">
-        <v>928.4942016969403</v>
+        <v>885.1967885436775</v>
       </c>
       <c r="N31" t="n">
-        <v>1272.763129287353</v>
+        <v>1229.46571613409</v>
       </c>
       <c r="O31" t="n">
-        <v>1332.449145834672</v>
+        <v>1540.953282216878</v>
       </c>
       <c r="P31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="Q31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="R31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="U31" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="V31" t="n">
-        <v>1579.634699213677</v>
+        <v>1313.655354034503</v>
       </c>
       <c r="W31" t="n">
-        <v>1579.634699213677</v>
+        <v>1200.254739664281</v>
       </c>
       <c r="X31" t="n">
-        <v>1492.542211479129</v>
+        <v>966.1744174472641</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.430150295772</v>
+        <v>966.1744174472641</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.0762498185401</v>
+        <v>927.5828027975167</v>
       </c>
       <c r="C32" t="n">
-        <v>477.0762498185401</v>
+        <v>927.5828027975167</v>
       </c>
       <c r="D32" t="n">
-        <v>477.0762498185401</v>
+        <v>542.1416740141844</v>
       </c>
       <c r="E32" t="n">
-        <v>477.0762498185401</v>
+        <v>430.4903453008587</v>
       </c>
       <c r="F32" t="n">
-        <v>477.0762498185401</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="G32" t="n">
-        <v>377.1870660917465</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="H32" t="n">
-        <v>77.62441377143429</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="I32" t="n">
         <v>31.59269398427355</v>
@@ -6733,19 +6733,19 @@
         <v>1579.634699213677</v>
       </c>
       <c r="U32" t="n">
-        <v>1579.634699213677</v>
+        <v>1324.073511876916</v>
       </c>
       <c r="V32" t="n">
-        <v>1237.527889917196</v>
+        <v>1324.073511876916</v>
       </c>
       <c r="W32" t="n">
-        <v>866.5288548854833</v>
+        <v>1324.073511876916</v>
       </c>
       <c r="X32" t="n">
-        <v>477.0762498185401</v>
+        <v>1324.073511876916</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.0762498185401</v>
+        <v>927.5828027975167</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>773.1989825528575</v>
+        <v>414.067761838078</v>
       </c>
       <c r="C33" t="n">
-        <v>622.5447521129497</v>
+        <v>414.067761838078</v>
       </c>
       <c r="D33" t="n">
-        <v>492.45578473443</v>
+        <v>414.067761838078</v>
       </c>
       <c r="E33" t="n">
-        <v>356.0092938453178</v>
+        <v>277.6212709489657</v>
       </c>
       <c r="F33" t="n">
         <v>231.5774877284496</v>
@@ -6797,10 +6797,10 @@
         <v>1236.497678405707</v>
       </c>
       <c r="P33" t="n">
-        <v>1390.041783884863</v>
+        <v>1454.928328609447</v>
       </c>
       <c r="Q33" t="n">
-        <v>1579.634699213677</v>
+        <v>1525.121019203607</v>
       </c>
       <c r="R33" t="n">
         <v>1579.634699213677</v>
@@ -6809,22 +6809,22 @@
         <v>1579.634699213677</v>
       </c>
       <c r="T33" t="n">
-        <v>1579.634699213677</v>
+        <v>1407.814424310558</v>
       </c>
       <c r="U33" t="n">
-        <v>1579.634699213677</v>
+        <v>1197.835560699178</v>
       </c>
       <c r="V33" t="n">
-        <v>1523.733857435013</v>
+        <v>975.2955590702452</v>
       </c>
       <c r="W33" t="n">
-        <v>1293.6166115683</v>
+        <v>745.1783132035321</v>
       </c>
       <c r="X33" t="n">
-        <v>1104.309533918312</v>
+        <v>745.1783132035321</v>
       </c>
       <c r="Y33" t="n">
-        <v>924.9953169938188</v>
+        <v>565.8640962790394</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>651.8540866705109</v>
+        <v>646.0403520710645</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6489687365001</v>
+        <v>646.0403520710645</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0158556390149</v>
+        <v>490.4072389735792</v>
       </c>
       <c r="E34" t="n">
-        <v>170.4570434982174</v>
+        <v>334.8484268327817</v>
       </c>
       <c r="F34" t="n">
-        <v>31.59269398427355</v>
+        <v>177.5224920457547</v>
       </c>
       <c r="G34" t="n">
-        <v>31.59269398427355</v>
+        <v>177.5224920457547</v>
       </c>
       <c r="H34" t="n">
         <v>31.59269398427355</v>
@@ -6864,16 +6864,16 @@
         <v>235.7228323250489</v>
       </c>
       <c r="L34" t="n">
-        <v>556.3460919260045</v>
+        <v>533.9025215081307</v>
       </c>
       <c r="M34" t="n">
-        <v>907.6403589615504</v>
+        <v>885.1967885436766</v>
       </c>
       <c r="N34" t="n">
-        <v>1020.961579751885</v>
+        <v>1229.465716134089</v>
       </c>
       <c r="O34" t="n">
-        <v>1332.449145834672</v>
+        <v>1540.953282216877</v>
       </c>
       <c r="P34" t="n">
         <v>1579.634699213677</v>
@@ -6882,28 +6882,28 @@
         <v>1579.634699213677</v>
       </c>
       <c r="R34" t="n">
-        <v>1579.634699213677</v>
+        <v>1504.024233593049</v>
       </c>
       <c r="S34" t="n">
-        <v>1579.634699213677</v>
+        <v>1504.024233593049</v>
       </c>
       <c r="T34" t="n">
-        <v>1579.634699213677</v>
+        <v>1504.024233593049</v>
       </c>
       <c r="U34" t="n">
-        <v>1294.254488762186</v>
+        <v>1218.644023141557</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.254488762186</v>
+        <v>1218.644023141557</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.254488762186</v>
+        <v>1218.644023141557</v>
       </c>
       <c r="X34" t="n">
-        <v>1060.174166545169</v>
+        <v>984.5637009245403</v>
       </c>
       <c r="Y34" t="n">
-        <v>837.0621053618122</v>
+        <v>761.4516397411836</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.59269398427356</v>
+        <v>476.5220650880198</v>
       </c>
       <c r="C35" t="n">
-        <v>31.59269398427356</v>
+        <v>476.5220650880198</v>
       </c>
       <c r="D35" t="n">
-        <v>31.59269398427356</v>
+        <v>476.5220650880198</v>
       </c>
       <c r="E35" t="n">
-        <v>31.59269398427356</v>
+        <v>476.5220650880198</v>
       </c>
       <c r="F35" t="n">
-        <v>31.59269398427356</v>
+        <v>77.62441377143432</v>
       </c>
       <c r="G35" t="n">
-        <v>31.59269398427356</v>
+        <v>77.62441377143432</v>
       </c>
       <c r="H35" t="n">
-        <v>31.59269398427356</v>
+        <v>77.62441377143432</v>
       </c>
       <c r="I35" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J35" t="n">
-        <v>114.2570890984371</v>
+        <v>114.2570890984368</v>
       </c>
       <c r="K35" t="n">
-        <v>271.1296257006245</v>
+        <v>271.1296257006243</v>
       </c>
       <c r="L35" t="n">
-        <v>489.7300241818695</v>
+        <v>489.7300241818691</v>
       </c>
       <c r="M35" t="n">
-        <v>753.5502216184228</v>
+        <v>753.5502216184225</v>
       </c>
       <c r="N35" t="n">
         <v>1024.638281111266</v>
@@ -6955,7 +6955,7 @@
         <v>1271.95112872718</v>
       </c>
       <c r="P35" t="n">
-        <v>1460.601271824091</v>
+        <v>1460.601271824092</v>
       </c>
       <c r="Q35" t="n">
         <v>1570.957387474054</v>
@@ -6970,19 +6970,19 @@
         <v>1254.661099726595</v>
       </c>
       <c r="U35" t="n">
-        <v>999.0999123898332</v>
+        <v>1254.661099726595</v>
       </c>
       <c r="V35" t="n">
-        <v>792.0443340829293</v>
+        <v>1254.661099726595</v>
       </c>
       <c r="W35" t="n">
-        <v>421.0452990512168</v>
+        <v>883.6620646948827</v>
       </c>
       <c r="X35" t="n">
-        <v>31.59269398427356</v>
+        <v>873.0127741674187</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.59269398427356</v>
+        <v>476.5220650880198</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.6249785383558</v>
+        <v>697.2738275781984</v>
       </c>
       <c r="C36" t="n">
-        <v>31.59269398427356</v>
+        <v>546.6195971382906</v>
       </c>
       <c r="D36" t="n">
-        <v>31.59269398427356</v>
+        <v>416.5306297597709</v>
       </c>
       <c r="E36" t="n">
-        <v>31.59269398427356</v>
+        <v>280.0841388706586</v>
       </c>
       <c r="F36" t="n">
-        <v>31.59269398427356</v>
+        <v>155.6523327537904</v>
       </c>
       <c r="G36" t="n">
-        <v>31.59269398427356</v>
+        <v>36.87356641731731</v>
       </c>
       <c r="H36" t="n">
-        <v>31.59269398427356</v>
+        <v>36.87356641731731</v>
       </c>
       <c r="I36" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J36" t="n">
-        <v>68.59544088442394</v>
+        <v>263.3304358641514</v>
       </c>
       <c r="K36" t="n">
-        <v>182.6396651187945</v>
+        <v>377.3746600985219</v>
       </c>
       <c r="L36" t="n">
-        <v>366.0958502841684</v>
+        <v>560.8308452638958</v>
       </c>
       <c r="M36" t="n">
-        <v>592.7625296149005</v>
+        <v>787.4975245946279</v>
       </c>
       <c r="N36" t="n">
-        <v>834.7940206749984</v>
+        <v>1029.529015654726</v>
       </c>
       <c r="O36" t="n">
-        <v>1041.762683425979</v>
+        <v>1236.497678405707</v>
       </c>
       <c r="P36" t="n">
-        <v>1195.306788905135</v>
+        <v>1390.041783884863</v>
       </c>
       <c r="Q36" t="n">
-        <v>1579.634699213678</v>
+        <v>1525.121019203608</v>
       </c>
       <c r="R36" t="n">
         <v>1579.634699213678</v>
       </c>
       <c r="S36" t="n">
-        <v>1468.498993563943</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T36" t="n">
-        <v>1296.678718660825</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="U36" t="n">
-        <v>1086.699855049444</v>
+        <v>1481.041626439299</v>
       </c>
       <c r="V36" t="n">
-        <v>864.1598534205114</v>
+        <v>1258.501624810366</v>
       </c>
       <c r="W36" t="n">
-        <v>634.0426075537982</v>
+        <v>1028.384378943653</v>
       </c>
       <c r="X36" t="n">
-        <v>444.7355299038099</v>
+        <v>1028.384378943653</v>
       </c>
       <c r="Y36" t="n">
-        <v>265.4213129793171</v>
+        <v>849.0701620191597</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.1449607688334</v>
+        <v>620.2562736623991</v>
       </c>
       <c r="C37" t="n">
-        <v>626.9398428348226</v>
+        <v>620.2562736623991</v>
       </c>
       <c r="D37" t="n">
-        <v>471.3067297373373</v>
+        <v>464.6231605649138</v>
       </c>
       <c r="E37" t="n">
-        <v>315.7479175965398</v>
+        <v>456.8952903706963</v>
       </c>
       <c r="F37" t="n">
-        <v>158.4219828095128</v>
+        <v>299.5693555836693</v>
       </c>
       <c r="G37" t="n">
-        <v>31.59269398427356</v>
+        <v>132.3892923042526</v>
       </c>
       <c r="H37" t="n">
-        <v>31.59269398427356</v>
+        <v>132.3892923042526</v>
       </c>
       <c r="I37" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J37" t="n">
         <v>76.23905867667898</v>
       </c>
       <c r="K37" t="n">
-        <v>115.514124274773</v>
+        <v>280.3691970174543</v>
       </c>
       <c r="L37" t="n">
-        <v>436.1373838757286</v>
+        <v>590.7536670205135</v>
       </c>
       <c r="M37" t="n">
-        <v>787.4316509112745</v>
+        <v>942.0479340560594</v>
       </c>
       <c r="N37" t="n">
-        <v>1131.700578501687</v>
+        <v>1020.961579751885</v>
       </c>
       <c r="O37" t="n">
-        <v>1443.188144584475</v>
+        <v>1332.449145834673</v>
       </c>
       <c r="P37" t="n">
         <v>1579.634699213678</v>
@@ -7119,28 +7119,28 @@
         <v>1579.634699213678</v>
       </c>
       <c r="R37" t="n">
-        <v>1579.634699213678</v>
+        <v>1504.02423359305</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.634699213678</v>
+        <v>1319.9248772367</v>
       </c>
       <c r="T37" t="n">
-        <v>1348.504516399501</v>
+        <v>1088.794694422523</v>
       </c>
       <c r="U37" t="n">
-        <v>1063.124305948009</v>
+        <v>1088.794694422523</v>
       </c>
       <c r="V37" t="n">
-        <v>797.1449607688334</v>
+        <v>1088.794694422523</v>
       </c>
       <c r="W37" t="n">
-        <v>797.1449607688334</v>
+        <v>805.4642923537003</v>
       </c>
       <c r="X37" t="n">
-        <v>797.1449607688334</v>
+        <v>805.4642923537003</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.1449607688334</v>
+        <v>805.4642923537003</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1078.228145776859</v>
+        <v>1024.508238799989</v>
       </c>
       <c r="C38" t="n">
-        <v>685.0526442797891</v>
+        <v>1024.508238799989</v>
       </c>
       <c r="D38" t="n">
-        <v>299.6115154964568</v>
+        <v>829.3879966174445</v>
       </c>
       <c r="E38" t="n">
-        <v>31.59269398427354</v>
+        <v>829.3879966174445</v>
       </c>
       <c r="F38" t="n">
-        <v>31.59269398427354</v>
+        <v>430.490345300859</v>
       </c>
       <c r="G38" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="H38" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I38" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J38" t="n">
-        <v>114.2570890984368</v>
+        <v>114.2570890984375</v>
       </c>
       <c r="K38" t="n">
-        <v>271.1296257006242</v>
+        <v>271.129625700625</v>
       </c>
       <c r="L38" t="n">
-        <v>489.7300241818689</v>
+        <v>489.7300241818699</v>
       </c>
       <c r="M38" t="n">
-        <v>753.5502216184224</v>
+        <v>753.5502216184232</v>
       </c>
       <c r="N38" t="n">
         <v>1024.638281111266</v>
@@ -7198,28 +7198,28 @@
         <v>1570.957387474054</v>
       </c>
       <c r="R38" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S38" t="n">
-        <v>1467.680750843802</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T38" t="n">
-        <v>1467.680750843802</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="U38" t="n">
-        <v>1467.680750843802</v>
+        <v>1366.61504809647</v>
       </c>
       <c r="V38" t="n">
-        <v>1467.680750843802</v>
+        <v>1024.508238799989</v>
       </c>
       <c r="W38" t="n">
-        <v>1467.680750843802</v>
+        <v>1024.508238799989</v>
       </c>
       <c r="X38" t="n">
-        <v>1078.228145776859</v>
+        <v>1024.508238799989</v>
       </c>
       <c r="Y38" t="n">
-        <v>1078.228145776859</v>
+        <v>1024.508238799989</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>231.9496550758009</v>
+        <v>767.9181101198138</v>
       </c>
       <c r="C39" t="n">
-        <v>231.9496550758009</v>
+        <v>617.263879679906</v>
       </c>
       <c r="D39" t="n">
-        <v>231.9496550758009</v>
+        <v>487.1749123013863</v>
       </c>
       <c r="E39" t="n">
-        <v>231.9496550758009</v>
+        <v>350.728421412274</v>
       </c>
       <c r="F39" t="n">
-        <v>107.5178489589327</v>
+        <v>226.2966152954058</v>
       </c>
       <c r="G39" t="n">
         <v>107.5178489589327</v>
       </c>
       <c r="H39" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I39" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J39" t="n">
-        <v>263.3304358641513</v>
+        <v>263.3304358641514</v>
       </c>
       <c r="K39" t="n">
         <v>377.3746600985219</v>
@@ -7265,40 +7265,40 @@
         <v>787.4975245946279</v>
       </c>
       <c r="N39" t="n">
-        <v>1094.41556037931</v>
+        <v>1094.415560379312</v>
       </c>
       <c r="O39" t="n">
-        <v>1301.384223130291</v>
+        <v>1301.384223130292</v>
       </c>
       <c r="P39" t="n">
-        <v>1454.928328609447</v>
+        <v>1454.928328609448</v>
       </c>
       <c r="Q39" t="n">
-        <v>1525.121019203607</v>
+        <v>1525.121019203608</v>
       </c>
       <c r="R39" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S39" t="n">
-        <v>1468.498993563943</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="T39" t="n">
-        <v>1296.678718660824</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="U39" t="n">
-        <v>1086.699855049443</v>
+        <v>1369.655835602298</v>
       </c>
       <c r="V39" t="n">
-        <v>864.1598534205104</v>
+        <v>1369.655835602298</v>
       </c>
       <c r="W39" t="n">
-        <v>634.0426075537973</v>
+        <v>1139.538589735585</v>
       </c>
       <c r="X39" t="n">
-        <v>444.735529903809</v>
+        <v>1099.028661485268</v>
       </c>
       <c r="Y39" t="n">
-        <v>265.4213129793162</v>
+        <v>919.7144445607752</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1084.222131604471</v>
+        <v>344.7025553251714</v>
       </c>
       <c r="C40" t="n">
-        <v>914.0170136704601</v>
+        <v>344.7025553251714</v>
       </c>
       <c r="D40" t="n">
-        <v>758.3839005729749</v>
+        <v>344.7025553251714</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8250884321774</v>
+        <v>344.7025553251714</v>
       </c>
       <c r="F40" t="n">
-        <v>445.4991536451504</v>
+        <v>344.7025553251714</v>
       </c>
       <c r="G40" t="n">
-        <v>278.3190903657337</v>
+        <v>177.5224920457547</v>
       </c>
       <c r="H40" t="n">
-        <v>132.3892923042526</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="I40" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="J40" t="n">
-        <v>31.59269398427354</v>
+        <v>31.59269398427357</v>
       </c>
       <c r="K40" t="n">
-        <v>164.1364371990126</v>
+        <v>235.722832325049</v>
       </c>
       <c r="L40" t="n">
-        <v>233.8337677391916</v>
+        <v>325.3983851259267</v>
       </c>
       <c r="M40" t="n">
-        <v>585.1280347747374</v>
+        <v>676.6926521614726</v>
       </c>
       <c r="N40" t="n">
-        <v>929.3969623651503</v>
+        <v>1020.961579751885</v>
       </c>
       <c r="O40" t="n">
-        <v>1240.884528447938</v>
+        <v>1332.449145834673</v>
       </c>
       <c r="P40" t="n">
-        <v>1488.070081826943</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="Q40" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="R40" t="n">
-        <v>1579.634699213677</v>
+        <v>1579.634699213678</v>
       </c>
       <c r="S40" t="n">
-        <v>1579.634699213677</v>
+        <v>1395.535342857328</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.634699213677</v>
+        <v>1164.405160043151</v>
       </c>
       <c r="U40" t="n">
-        <v>1579.634699213677</v>
+        <v>1164.405160043151</v>
       </c>
       <c r="V40" t="n">
-        <v>1579.634699213677</v>
+        <v>1164.405160043151</v>
       </c>
       <c r="W40" t="n">
-        <v>1579.634699213677</v>
+        <v>987.1029574168463</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.542211479129</v>
+        <v>753.0226351998293</v>
       </c>
       <c r="Y40" t="n">
-        <v>1269.430150295772</v>
+        <v>529.9105740164727</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1183.143990134279</v>
+        <v>413.2473037859808</v>
       </c>
       <c r="C41" t="n">
-        <v>789.9684886372097</v>
+        <v>413.2473037859808</v>
       </c>
       <c r="D41" t="n">
-        <v>789.9684886372097</v>
+        <v>413.2473037859808</v>
       </c>
       <c r="E41" t="n">
-        <v>391.0708373206243</v>
+        <v>413.2473037859808</v>
       </c>
       <c r="F41" t="n">
-        <v>31.59269398427356</v>
+        <v>413.2473037859808</v>
       </c>
       <c r="G41" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="H41" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="I41" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J41" t="n">
-        <v>114.2570890984375</v>
+        <v>114.2570890984368</v>
       </c>
       <c r="K41" t="n">
-        <v>271.129625700625</v>
+        <v>271.1296257006243</v>
       </c>
       <c r="L41" t="n">
-        <v>489.7300241818697</v>
+        <v>489.7300241818687</v>
       </c>
       <c r="M41" t="n">
-        <v>753.5502216184231</v>
+        <v>753.550221618422</v>
       </c>
       <c r="N41" t="n">
-        <v>1024.638281111266</v>
+        <v>1024.638281111265</v>
       </c>
       <c r="O41" t="n">
-        <v>1271.95112872718</v>
+        <v>1271.951128727179</v>
       </c>
       <c r="P41" t="n">
-        <v>1460.601271824091</v>
+        <v>1460.60127182409</v>
       </c>
       <c r="Q41" t="n">
-        <v>1570.957387474054</v>
+        <v>1570.957387474053</v>
       </c>
       <c r="R41" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S41" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T41" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="U41" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="V41" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="W41" t="n">
-        <v>1579.634699213678</v>
+        <v>1208.635664181965</v>
       </c>
       <c r="X41" t="n">
-        <v>1579.634699213678</v>
+        <v>1208.635664181965</v>
       </c>
       <c r="Y41" t="n">
-        <v>1183.143990134279</v>
+        <v>812.144955102566</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>265.4213129793171</v>
+        <v>575.8951760157013</v>
       </c>
       <c r="C42" t="n">
-        <v>114.7670825394093</v>
+        <v>425.2409455757935</v>
       </c>
       <c r="D42" t="n">
-        <v>31.59269398427356</v>
+        <v>295.1519781972738</v>
       </c>
       <c r="E42" t="n">
-        <v>31.59269398427356</v>
+        <v>274.8032664376149</v>
       </c>
       <c r="F42" t="n">
-        <v>31.59269398427356</v>
+        <v>150.3714603207467</v>
       </c>
       <c r="G42" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="H42" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="I42" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J42" t="n">
-        <v>263.3304358641514</v>
+        <v>68.59544088442392</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3746600985219</v>
+        <v>182.6396651187945</v>
       </c>
       <c r="L42" t="n">
-        <v>560.8308452638958</v>
+        <v>366.0958502841684</v>
       </c>
       <c r="M42" t="n">
-        <v>787.4975245946279</v>
+        <v>592.7625296149005</v>
       </c>
       <c r="N42" t="n">
-        <v>1029.529015654726</v>
+        <v>834.7940206749984</v>
       </c>
       <c r="O42" t="n">
-        <v>1236.497678405707</v>
+        <v>1041.762683425979</v>
       </c>
       <c r="P42" t="n">
-        <v>1390.041783884863</v>
+        <v>1195.306788905135</v>
       </c>
       <c r="Q42" t="n">
-        <v>1525.121019203608</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="R42" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S42" t="n">
-        <v>1468.498993563943</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T42" t="n">
-        <v>1296.678718660825</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="U42" t="n">
-        <v>1086.699855049444</v>
+        <v>1369.655835602297</v>
       </c>
       <c r="V42" t="n">
-        <v>864.1598534205114</v>
+        <v>1147.115833973364</v>
       </c>
       <c r="W42" t="n">
-        <v>634.0426075537982</v>
+        <v>916.9985881066509</v>
       </c>
       <c r="X42" t="n">
-        <v>444.7355299038099</v>
+        <v>727.6915104566626</v>
       </c>
       <c r="Y42" t="n">
-        <v>265.4213129793171</v>
+        <v>727.6915104566626</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.1467978835369</v>
+        <v>840.0122447646518</v>
       </c>
       <c r="C43" t="n">
-        <v>118.1467978835369</v>
+        <v>840.0122447646518</v>
       </c>
       <c r="D43" t="n">
-        <v>118.1467978835369</v>
+        <v>684.3791316671666</v>
       </c>
       <c r="E43" t="n">
-        <v>118.1467978835369</v>
+        <v>528.8203195263691</v>
       </c>
       <c r="F43" t="n">
-        <v>118.1467978835369</v>
+        <v>371.494384739342</v>
       </c>
       <c r="G43" t="n">
-        <v>31.59269398427356</v>
+        <v>204.3143214599253</v>
       </c>
       <c r="H43" t="n">
-        <v>31.59269398427356</v>
+        <v>58.3845233984442</v>
       </c>
       <c r="I43" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J43" t="n">
-        <v>31.59269398427356</v>
+        <v>76.23905867667897</v>
       </c>
       <c r="K43" t="n">
-        <v>213.2792619071757</v>
+        <v>280.3691970174543</v>
       </c>
       <c r="L43" t="n">
-        <v>533.9025215081314</v>
+        <v>600.99245661841</v>
       </c>
       <c r="M43" t="n">
-        <v>885.1967885436773</v>
+        <v>676.596403345408</v>
       </c>
       <c r="N43" t="n">
-        <v>1229.46571613409</v>
+        <v>929.3969623651506</v>
       </c>
       <c r="O43" t="n">
-        <v>1540.953282216878</v>
+        <v>1240.884528447938</v>
       </c>
       <c r="P43" t="n">
-        <v>1579.634699213678</v>
+        <v>1488.070081826943</v>
       </c>
       <c r="Q43" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="R43" t="n">
-        <v>1504.02423359305</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S43" t="n">
-        <v>1319.9248772367</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T43" t="n">
-        <v>1088.794694422523</v>
+        <v>1348.5045163995</v>
       </c>
       <c r="U43" t="n">
-        <v>803.4144839710309</v>
+        <v>1063.124305948008</v>
       </c>
       <c r="V43" t="n">
-        <v>537.4351387918551</v>
+        <v>1063.124305948008</v>
       </c>
       <c r="W43" t="n">
-        <v>537.4351387918551</v>
+        <v>1063.124305948008</v>
       </c>
       <c r="X43" t="n">
-        <v>303.3548165748382</v>
+        <v>1063.124305948008</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.3548165748382</v>
+        <v>840.0122447646518</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.59269398427356</v>
+        <v>422.6923500356227</v>
       </c>
       <c r="C44" t="n">
-        <v>31.59269398427356</v>
+        <v>331.1553463045857</v>
       </c>
       <c r="D44" t="n">
-        <v>31.59269398427356</v>
+        <v>331.1553463045857</v>
       </c>
       <c r="E44" t="n">
-        <v>31.59269398427356</v>
+        <v>331.1553463045857</v>
       </c>
       <c r="F44" t="n">
-        <v>31.59269398427356</v>
+        <v>331.1553463045857</v>
       </c>
       <c r="G44" t="n">
-        <v>31.59269398427356</v>
+        <v>331.1553463045857</v>
       </c>
       <c r="H44" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="I44" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J44" t="n">
-        <v>114.2570890984371</v>
+        <v>114.2570890984368</v>
       </c>
       <c r="K44" t="n">
-        <v>271.1296257006245</v>
+        <v>271.1296257006243</v>
       </c>
       <c r="L44" t="n">
-        <v>489.7300241818695</v>
+        <v>489.7300241818691</v>
       </c>
       <c r="M44" t="n">
-        <v>753.5502216184228</v>
+        <v>753.5502216184225</v>
       </c>
       <c r="N44" t="n">
         <v>1024.638281111266</v>
@@ -7672,28 +7672,28 @@
         <v>1570.957387474054</v>
       </c>
       <c r="R44" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S44" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T44" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="U44" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="V44" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="W44" t="n">
-        <v>1216.433659447201</v>
+        <v>1208.635664181965</v>
       </c>
       <c r="X44" t="n">
-        <v>826.9810543802578</v>
+        <v>819.1830591150216</v>
       </c>
       <c r="Y44" t="n">
-        <v>430.4903453008589</v>
+        <v>422.6923500356227</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>767.9181101198138</v>
+        <v>631.4716192307014</v>
       </c>
       <c r="C45" t="n">
-        <v>617.263879679906</v>
+        <v>480.8173887907937</v>
       </c>
       <c r="D45" t="n">
-        <v>487.1749123013863</v>
+        <v>350.728421412274</v>
       </c>
       <c r="E45" t="n">
         <v>350.728421412274</v>
@@ -7721,13 +7721,13 @@
         <v>107.5178489589327</v>
       </c>
       <c r="H45" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="I45" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J45" t="n">
-        <v>263.3304358641514</v>
+        <v>263.3304358641513</v>
       </c>
       <c r="K45" t="n">
         <v>377.3746600985219</v>
@@ -7745,34 +7745,34 @@
         <v>1236.497678405707</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.041783884863</v>
+        <v>1454.928328609447</v>
       </c>
       <c r="Q45" t="n">
-        <v>1579.634699213678</v>
+        <v>1525.121019203607</v>
       </c>
       <c r="R45" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S45" t="n">
         <v>1468.498993563943</v>
       </c>
       <c r="T45" t="n">
-        <v>1468.498993563943</v>
+        <v>1296.678718660824</v>
       </c>
       <c r="U45" t="n">
-        <v>1468.498993563943</v>
+        <v>1086.699855049444</v>
       </c>
       <c r="V45" t="n">
-        <v>1468.498993563943</v>
+        <v>864.1598534205107</v>
       </c>
       <c r="W45" t="n">
-        <v>1238.38174769723</v>
+        <v>634.0426075537976</v>
       </c>
       <c r="X45" t="n">
-        <v>1099.028661485268</v>
+        <v>631.4716192307014</v>
       </c>
       <c r="Y45" t="n">
-        <v>919.7144445607752</v>
+        <v>631.4716192307014</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.3892923042526</v>
+        <v>744.9447415141876</v>
       </c>
       <c r="C46" t="n">
-        <v>132.3892923042526</v>
+        <v>574.7396235801768</v>
       </c>
       <c r="D46" t="n">
-        <v>132.3892923042526</v>
+        <v>455.1281677244667</v>
       </c>
       <c r="E46" t="n">
-        <v>132.3892923042526</v>
+        <v>299.5693555836692</v>
       </c>
       <c r="F46" t="n">
-        <v>132.3892923042526</v>
+        <v>299.5693555836692</v>
       </c>
       <c r="G46" t="n">
         <v>132.3892923042526</v>
@@ -7803,55 +7803,55 @@
         <v>132.3892923042526</v>
       </c>
       <c r="I46" t="n">
-        <v>31.59269398427356</v>
+        <v>31.59269398427355</v>
       </c>
       <c r="J46" t="n">
-        <v>76.23905867667898</v>
+        <v>76.23905867667897</v>
       </c>
       <c r="K46" t="n">
-        <v>115.514124274773</v>
+        <v>280.3691970174543</v>
       </c>
       <c r="L46" t="n">
-        <v>436.1373838757286</v>
+        <v>600.99245661841</v>
       </c>
       <c r="M46" t="n">
-        <v>787.4316509112745</v>
+        <v>676.596403345408</v>
       </c>
       <c r="N46" t="n">
-        <v>1131.700578501687</v>
+        <v>929.3969623651506</v>
       </c>
       <c r="O46" t="n">
-        <v>1443.188144584475</v>
+        <v>1240.884528447938</v>
       </c>
       <c r="P46" t="n">
-        <v>1579.634699213678</v>
+        <v>1488.070081826943</v>
       </c>
       <c r="Q46" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="R46" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="S46" t="n">
-        <v>1579.634699213678</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="T46" t="n">
-        <v>1348.504516399501</v>
+        <v>1579.634699213677</v>
       </c>
       <c r="U46" t="n">
-        <v>1063.124305948009</v>
+        <v>1294.254488762186</v>
       </c>
       <c r="V46" t="n">
-        <v>797.1449607688331</v>
+        <v>1028.27514358301</v>
       </c>
       <c r="W46" t="n">
-        <v>774.7896943959274</v>
+        <v>744.9447415141876</v>
       </c>
       <c r="X46" t="n">
-        <v>540.7093721789105</v>
+        <v>744.9447415141876</v>
       </c>
       <c r="Y46" t="n">
-        <v>317.5973109955538</v>
+        <v>744.9447415141876</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>55.88362148616</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K5" t="n">
-        <v>50.44189372798085</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L5" t="n">
-        <v>38.34920004422726</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M5" t="n">
-        <v>21.87780916043322</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N5" t="n">
-        <v>19.20254685767776</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O5" t="n">
-        <v>26.8878950339908</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P5" t="n">
-        <v>45.60036861920612</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.87254875688947</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R5" t="n">
         <v>94.39435507525033</v>
@@ -8294,13 +8294,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>45.63905415849316</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K6" t="n">
-        <v>26.69063902916497</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L6" t="n">
-        <v>5.47506835682708</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>12.69342733144538</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q6" t="n">
         <v>41.26044998519077</v>
@@ -8379,7 +8379,7 @@
         <v>45.91378856574659</v>
       </c>
       <c r="L7" t="n">
-        <v>39.118722096546</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M7" t="n">
         <v>39.10593087476303</v>
@@ -8388,7 +8388,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O7" t="n">
-        <v>43.83351015779508</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P7" t="n">
         <v>50.02257600621597</v>
@@ -8461,7 +8461,7 @@
         <v>30.91197545483701</v>
       </c>
       <c r="M8" t="n">
-        <v>13.60246380497313</v>
+        <v>13.6024638049731</v>
       </c>
       <c r="N8" t="n">
         <v>10.7932977627591</v>
@@ -8619,7 +8619,7 @@
         <v>35.97575015027785</v>
       </c>
       <c r="M10" t="n">
-        <v>35.79210763460761</v>
+        <v>35.7921076346076</v>
       </c>
       <c r="N10" t="n">
         <v>29.78206965893037</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K13" t="n">
-        <v>131.0594330892263</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L13" t="n">
-        <v>83.2084575421969</v>
+        <v>50.90290605191548</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O13" t="n">
-        <v>121.0203994082974</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>133.6615775517187</v>
+        <v>133.6615775517189</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.64592635853825</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.09549975836525</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229083</v>
+        <v>113.9881414229084</v>
       </c>
       <c r="M16" t="n">
-        <v>111.4192326297103</v>
+        <v>91.11728151419861</v>
       </c>
       <c r="N16" t="n">
-        <v>106.5092612162224</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O16" t="n">
-        <v>116.0954849978688</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.64592635853825</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083156</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228023</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850114</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118605</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L19" t="n">
-        <v>113.9881414229083</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>111.4192326297103</v>
+        <v>83.21379127899911</v>
       </c>
       <c r="N19" t="n">
-        <v>28.9182213899566</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O19" t="n">
-        <v>121.0203994082974</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361108</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K22" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L22" t="n">
-        <v>113.9881414229083</v>
+        <v>113.9881414229084</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297103</v>
+        <v>106.4943182192818</v>
       </c>
       <c r="N22" t="n">
-        <v>28.91822138995659</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O22" t="n">
-        <v>121.0203994082974</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>253.4605344048249</v>
+        <v>186.7002979832113</v>
       </c>
       <c r="M25" t="n">
         <v>278.4750710187352</v>
@@ -9810,13 +9810,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>95.09525059731064</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>9.445502557439866</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>262.2439794993053</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>120.6062876107637</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>15.94948166316507</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>150.6288101779245</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>175.6433467918357</v>
       </c>
       <c r="O28" t="n">
         <v>254.3449995307766</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>150.4324212073608</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8115582919441</v>
+        <v>262.2439794993063</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>7.37519839031161</v>
       </c>
       <c r="K31" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
-        <v>229.427683943193</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
-        <v>278.4750710187352</v>
+        <v>255.8047978693685</v>
       </c>
       <c r="N31" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>9.445502557439866</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.54196436826737</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.6062876107628</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>15.94948166316507</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>253.4605344048249</v>
+        <v>230.7902612554574</v>
       </c>
       <c r="M34" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N34" t="n">
-        <v>34.75512635808893</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P34" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>9.445502557439866</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>317.3083027418015</v>
+        <v>65.5419643682683</v>
       </c>
       <c r="R36" t="n">
-        <v>15.94948166316507</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>243.118322689778</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>98.75266427515453</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
         <v>9.445502557439866</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>65.54196436826703</v>
+        <v>65.54196436826842</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>7.37519839031161</v>
       </c>
       <c r="K40" t="n">
-        <v>94.21078547135861</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>20.18002248555423</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
@@ -11001,7 +11001,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>9.445502557439866</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.54196436826805</v>
+        <v>317.3083027418007</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>15.94948166316507</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.37519839031161</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>143.8500023482911</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>268.0356382773604</v>
+        <v>175.6433467918348</v>
       </c>
       <c r="O43" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.445502557439866</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.54196436826737</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.6062876107632</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>15.94948166316507</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>175.6433467918348</v>
       </c>
       <c r="O46" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>98.7526642751543</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.445502557439866</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>313.3856093542684</v>
       </c>
       <c r="I5" t="n">
-        <v>108.8838344298737</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>83.65205897599289</v>
       </c>
       <c r="I6" t="n">
-        <v>35.48070724912227</v>
+        <v>35.48070724912226</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>121.9417678743324</v>
       </c>
       <c r="J7" t="n">
-        <v>6.983960317295722</v>
+        <v>6.983960317295718</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H11" t="n">
-        <v>280.5032100041885</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.29802119272735</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T11" t="n">
-        <v>93.10018522791886</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U11" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>231.3235920390554</v>
       </c>
       <c r="W11" t="n">
-        <v>245.3974130232878</v>
+        <v>245.3974130232875</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581658</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23342,22 +23342,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626565</v>
       </c>
       <c r="E12" t="n">
-        <v>13.19039432211348</v>
+        <v>13.19039432211325</v>
       </c>
       <c r="F12" t="n">
-        <v>1.295856397591848</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0923966805212</v>
+        <v>10.73024751605988</v>
       </c>
       <c r="H12" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813947</v>
       </c>
       <c r="U12" t="n">
-        <v>120.4880480761207</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23427,16 +23427,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>33.8610437810491</v>
+        <v>33.86104378104888</v>
       </c>
       <c r="G13" t="n">
-        <v>44.03700300220726</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H13" t="n">
-        <v>31.38457387403744</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S13" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T13" t="n">
-        <v>230.6150159536303</v>
+        <v>108.7233842955224</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>113.5187914070617</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>267.3521148239908</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23515,7 +23515,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.29802119272735</v>
+        <v>24.82750368637357</v>
       </c>
       <c r="T14" t="n">
-        <v>93.10018522791884</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U14" t="n">
-        <v>145.7183980824622</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V14" t="n">
-        <v>216.7941095454091</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.38673943844405</v>
+        <v>42.91622193209035</v>
       </c>
       <c r="C15" t="n">
-        <v>27.25605647740103</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>6.896446046626792</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>27.71987681575997</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23591,10 +23591,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I15" t="n">
-        <v>22.49179773586701</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>207.9120630020701</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538056</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="16">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S16" t="n">
-        <v>67.69266886420904</v>
+        <v>189.5843005223167</v>
       </c>
       <c r="T16" t="n">
-        <v>108.7233842955226</v>
+        <v>123.2528667891689</v>
       </c>
       <c r="U16" t="n">
-        <v>160.657706071434</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V16" t="n">
-        <v>249.7132178884603</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>158.6054663900263</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23749,10 +23749,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H17" t="n">
-        <v>306.1645855229701</v>
+        <v>184.2729538648622</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.82750368637384</v>
+        <v>24.82750368637357</v>
       </c>
       <c r="T17" t="n">
-        <v>93.10018522791886</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U17" t="n">
-        <v>131.1889155888157</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>216.7941095454091</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232875</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>27.71987681575978</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -23828,10 +23828,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I18" t="n">
-        <v>22.49179773586702</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>11.97581899629134</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>50.2315069381397</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U18" t="n">
-        <v>86.0204313439624</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V18" t="n">
-        <v>98.42296995453596</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>46.611435096563</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>33.8610437810491</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.9286346603149</v>
@@ -23910,7 +23910,7 @@
         <v>148.207989438968</v>
       </c>
       <c r="I19" t="n">
-        <v>112.4303652576384</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S19" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>230.6150159536303</v>
+        <v>108.7233842955224</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>173.1349488836728</v>
       </c>
       <c r="X19" t="n">
-        <v>124.3773698303855</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.9893089134154</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>274.598166596175</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5979401715768</v>
+        <v>300.2357910071154</v>
       </c>
       <c r="H20" t="n">
-        <v>184.2729538648624</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V20" t="n">
-        <v>313.0243656847352</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232878</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581661</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.91622193209055</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24065,10 +24065,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586701</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9244417499383</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X21" t="n">
-        <v>65.52237521538079</v>
+        <v>80.05185770902709</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.62944309714017</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24135,13 +24135,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>46.64107485492835</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>44.03700300220727</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
         <v>148.207989438968</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S22" t="n">
-        <v>67.69266886420904</v>
+        <v>82.2221513578553</v>
       </c>
       <c r="T22" t="n">
-        <v>108.7233842955226</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>158.6054663900263</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24208,19 +24208,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>351.0762339159258</v>
+        <v>3.649014831201555</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.6607928774612</v>
+        <v>200.1697958088224</v>
       </c>
       <c r="H23" t="n">
         <v>296.567025797109</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>110.8344088861765</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>253.0055754633941</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>45.01293514879033</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.5909786731084</v>
+        <v>13.23369405354183</v>
       </c>
       <c r="H24" t="n">
         <v>75.16590342491256</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>110.0243485932371</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>152.6757873104233</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5082626466225</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>182.2583627927862</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8188809860355</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5264083469766</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.5179561376437</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.9494073646963</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>3.649014831201555</v>
+        <v>3.649014831201328</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.6607928774612</v>
+        <v>11.75211807404168</v>
       </c>
       <c r="H26" t="n">
         <v>296.567025797109</v>
@@ -24496,7 +24496,7 @@
         <v>110.8344088861765</v>
       </c>
       <c r="T26" t="n">
-        <v>210.8894546060356</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0055754633941</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>249.914767506468</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>71.50311042213377</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.5909786731084</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>75.16590342491256</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5.2280637087133</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>94.82324036043067</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>152.6757873104224</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>4.186108013316448</v>
+        <v>165.5082626466225</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.78863233677922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>74.85436096442217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.2583627927862</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5264083469766</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.26923787485811</v>
+        <v>1.581123450863345</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>42.67432773163347</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24700,7 +24700,7 @@
         <v>296.567025797109</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>45.57140258928914</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>253.0055754633941</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24764,19 +24764,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>86.69945553846433</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.5909786731084</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.16590342491256</v>
       </c>
       <c r="I30" t="n">
         <v>5.2280637087133</v>
@@ -24812,13 +24812,13 @@
         <v>110.0243485932371</v>
       </c>
       <c r="T30" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8790749752666</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>159.744704543053</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.4705000808663</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>282.5264083469766</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>168.2304898216148</v>
       </c>
       <c r="X31" t="n">
-        <v>145.5179561376439</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>288.0228742084284</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>17.81681928190267</v>
       </c>
       <c r="G32" t="n">
-        <v>307.7705009879356</v>
+        <v>406.6607928774612</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>296.567025797109</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>45.57140258928914</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>210.8894546060356</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0055754633941</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>77.60414266738852</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25049,19 +25049,19 @@
         <v>110.0243485932371</v>
       </c>
       <c r="T33" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8790749752666</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>164.972768251766</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>69.09876371097035</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>18.27696942035237</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5082626466225</v>
       </c>
       <c r="H34" t="n">
-        <v>144.4705000808663</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>99.78863233677922</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>74.85436096442217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>182.2583627927862</v>
@@ -25165,7 +25165,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>17.81681928190244</v>
       </c>
       <c r="G35" t="n">
         <v>406.6607928774612</v>
@@ -25174,7 +25174,7 @@
         <v>296.567025797109</v>
       </c>
       <c r="I35" t="n">
-        <v>45.57140258928914</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0055754633941</v>
       </c>
       <c r="V35" t="n">
-        <v>133.7007186796819</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>375.0152813940844</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>67.93572642696731</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.5909786731084</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>75.16590342491256</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2280637087133</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.0243485932371</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>110.2719329286308</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.3526325271142</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.94726670963571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.4705000808663</v>
       </c>
       <c r="I37" t="n">
-        <v>99.78863233677922</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>74.85436096442217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.2583627927862</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5264083469766</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25393,19 +25393,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>188.4176777347802</v>
       </c>
       <c r="E38" t="n">
-        <v>133.2190563375594</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>17.81681928190244</v>
       </c>
       <c r="G38" t="n">
-        <v>406.6607928774612</v>
+        <v>11.75211807404168</v>
       </c>
       <c r="H38" t="n">
         <v>296.567025797109</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>110.8344088861765</v>
       </c>
       <c r="T38" t="n">
-        <v>210.8894546060356</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.0055754633941</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>117.1414297720715</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.5909786731084</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>110.0243485932371</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>147.3091779056749</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>99.78863233677922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>74.85436096442217</v>
       </c>
       <c r="S40" t="n">
-        <v>182.2583627927862</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8188809860355</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5264083469766</v>
@@ -25611,10 +25611,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>104.9679174480922</v>
       </c>
       <c r="X40" t="n">
-        <v>145.5179561376439</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>1.581123450863572</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>3.649014831201384</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>56.84213218233481</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.6607928774612</v>
+        <v>28.82272917377111</v>
       </c>
       <c r="H41" t="n">
         <v>296.567025797109</v>
@@ -25690,7 +25690,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>46.44543303515005</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>114.9368013381588</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.5909786731084</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>75.16590342491256</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>110.0243485932371</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.1020721540876</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.81969978635179</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.4705000808663</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>99.78863233677922</v>
+        <v>73.26472121675027</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>74.85436096442217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.2583627927862</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.581123450863458</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>298.622112788372</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25882,7 +25882,7 @@
         <v>406.6607928774612</v>
       </c>
       <c r="H44" t="n">
-        <v>296.567025797109</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>45.57140258928914</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>7.720015312583485</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.1020721540876</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8790749752666</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>49.45445152364596</v>
+        <v>184.8687284336233</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>35.66144066935739</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5082626466225</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.4705000808663</v>
@@ -26076,7 +26076,7 @@
         <v>182.2583627927862</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.8188809860355</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>258.3653843389575</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>303500.7792967409</v>
+        <v>303500.7792967411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303500.7792967408</v>
+        <v>303500.7792967411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>303500.7792967409</v>
+        <v>303500.7792967411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>303500.7792967409</v>
+        <v>303500.7792967411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>516068.0000346486</v>
+        <v>516068.000034649</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>516068.0000346487</v>
+        <v>516068.0000346489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>516068.0000346488</v>
+        <v>516068.0000346487</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>516068.0000346487</v>
+        <v>516068.0000346489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516068.0000346489</v>
+        <v>516068.0000346488</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>516068.0000346488</v>
+        <v>516068.0000346486</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80631.86767716038</v>
+        <v>80631.86767716034</v>
       </c>
       <c r="C2" t="n">
-        <v>80631.86767716036</v>
+        <v>80631.86767716034</v>
       </c>
       <c r="D2" t="n">
         <v>80857.59125612152</v>
       </c>
       <c r="E2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="F2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="G2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="H2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="I2" t="n">
-        <v>199833.2638846346</v>
+        <v>199833.2638846345</v>
       </c>
       <c r="J2" t="n">
         <v>199833.2638846346</v>
       </c>
       <c r="K2" t="n">
-        <v>199833.2638846345</v>
+        <v>199833.2638846346</v>
       </c>
       <c r="L2" t="n">
-        <v>199833.2638846345</v>
+        <v>199833.2638846347</v>
       </c>
       <c r="M2" t="n">
-        <v>199833.2638846346</v>
+        <v>199833.2638846347</v>
       </c>
       <c r="N2" t="n">
         <v>199833.2638846346</v>
       </c>
       <c r="O2" t="n">
-        <v>199833.2638846347</v>
+        <v>199833.2638846346</v>
       </c>
       <c r="P2" t="n">
-        <v>199833.2638846347</v>
+        <v>199833.2638846346</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>10039.91658064504</v>
       </c>
       <c r="E3" t="n">
-        <v>167885.875089952</v>
+        <v>167885.8750899523</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248078.3413941716</v>
+        <v>248078.3413941714</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30375.88217572703</v>
+        <v>30375.88217572713</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>19331.20064893462</v>
       </c>
       <c r="D4" t="n">
-        <v>17115.73163939853</v>
+        <v>17115.73163939852</v>
       </c>
       <c r="E4" t="n">
-        <v>7716.195467638719</v>
+        <v>7716.195467638721</v>
       </c>
       <c r="F4" t="n">
         <v>7716.195467638719</v>
       </c>
       <c r="G4" t="n">
-        <v>7716.195467638721</v>
+        <v>7716.19546763872</v>
       </c>
       <c r="H4" t="n">
         <v>7716.195467638719</v>
@@ -26441,10 +26441,10 @@
         <v>16827.28597876437</v>
       </c>
       <c r="J4" t="n">
-        <v>16827.28597876437</v>
+        <v>16827.28597876439</v>
       </c>
       <c r="K4" t="n">
-        <v>16827.28597876436</v>
+        <v>16827.28597876439</v>
       </c>
       <c r="L4" t="n">
         <v>16827.28597876437</v>
@@ -26453,13 +26453,13 @@
         <v>16827.28597876439</v>
       </c>
       <c r="N4" t="n">
-        <v>16827.28597876436</v>
+        <v>16827.28597876439</v>
       </c>
       <c r="O4" t="n">
-        <v>16827.28597876438</v>
+        <v>16827.28597876437</v>
       </c>
       <c r="P4" t="n">
-        <v>16827.28597876438</v>
+        <v>16827.28597876437</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>37831.44707639565</v>
       </c>
       <c r="E5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="I5" t="n">
         <v>36864.18197994895</v>
       </c>
       <c r="J5" t="n">
-        <v>36864.18197994895</v>
+        <v>36864.18197994896</v>
       </c>
       <c r="K5" t="n">
-        <v>36864.18197994894</v>
+        <v>36864.18197994896</v>
       </c>
       <c r="L5" t="n">
         <v>36864.18197994895</v>
       </c>
       <c r="M5" t="n">
-        <v>36864.18197994895</v>
+        <v>36864.18197994896</v>
       </c>
       <c r="N5" t="n">
-        <v>36864.18197994894</v>
+        <v>36864.18197994896</v>
       </c>
       <c r="O5" t="n">
         <v>36864.18197994895</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150798.8429307015</v>
+        <v>-152199.0053732493</v>
       </c>
       <c r="C6" t="n">
-        <v>23724.78581303515</v>
+        <v>22324.62337048736</v>
       </c>
       <c r="D6" t="n">
-        <v>15870.4959596823</v>
+        <v>14471.46213502934</v>
       </c>
       <c r="E6" t="n">
-        <v>-72428.78788826798</v>
+        <v>-73640.32910451744</v>
       </c>
       <c r="F6" t="n">
-        <v>95457.08720168399</v>
+        <v>94245.5459854348</v>
       </c>
       <c r="G6" t="n">
-        <v>95457.08720168403</v>
+        <v>94245.5459854348</v>
       </c>
       <c r="H6" t="n">
-        <v>95457.08720168396</v>
+        <v>94245.5459854348</v>
       </c>
       <c r="I6" t="n">
-        <v>-101936.5454682503</v>
+        <v>-102740.7009297606</v>
       </c>
       <c r="J6" t="n">
-        <v>146141.7959259212</v>
+        <v>145337.6404644109</v>
       </c>
       <c r="K6" t="n">
-        <v>146141.7959259212</v>
+        <v>145337.6404644109</v>
       </c>
       <c r="L6" t="n">
-        <v>146141.7959259212</v>
+        <v>145337.640464411</v>
       </c>
       <c r="M6" t="n">
-        <v>115765.9137501943</v>
+        <v>114961.7582886838</v>
       </c>
       <c r="N6" t="n">
-        <v>146141.7959259213</v>
+        <v>145337.6404644109</v>
       </c>
       <c r="O6" t="n">
-        <v>146141.7959259214</v>
+        <v>145337.6404644109</v>
       </c>
       <c r="P6" t="n">
-        <v>146141.7959259213</v>
+        <v>145337.6404644109</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>181.1138172105779</v>
       </c>
       <c r="C3" t="n">
-        <v>181.1138172105779</v>
+        <v>181.113817210578</v>
       </c>
       <c r="D3" t="n">
         <v>192.8370218530114</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.505461593388</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="I3" t="n">
         <v>589.6208510046353</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I4" t="n">
         <v>394.9086748034193</v>
       </c>
       <c r="J4" t="n">
-        <v>394.9086748034193</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="K4" t="n">
-        <v>394.9086748034193</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="L4" t="n">
         <v>394.9086748034193</v>
       </c>
       <c r="M4" t="n">
-        <v>394.9086748034195</v>
+        <v>394.9086748034196</v>
       </c>
       <c r="N4" t="n">
+        <v>394.9086748034196</v>
+      </c>
+      <c r="O4" t="n">
         <v>394.9086748034193</v>
       </c>
-      <c r="O4" t="n">
-        <v>394.9086748034195</v>
-      </c>
       <c r="P4" t="n">
-        <v>394.9086748034194</v>
+        <v>394.9086748034193</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>11.7232046424335</v>
       </c>
       <c r="E3" t="n">
-        <v>163.6684397403762</v>
+        <v>163.6684397403765</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>233.1153894112476</v>
+        <v>233.1153894112473</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>273.0170431453117</v>
+        <v>273.0170431453114</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581075</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,28 +31278,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7280957475802122</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H5" t="n">
-        <v>7.45661057490585</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I5" t="n">
         <v>28.06991130858616</v>
       </c>
       <c r="J5" t="n">
-        <v>61.79621645618609</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K5" t="n">
-        <v>92.6165094512565</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L5" t="n">
-        <v>114.8989696862644</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M5" t="n">
-        <v>127.847242437294</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N5" t="n">
-        <v>129.9159444801063</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O5" t="n">
         <v>122.6759423901056</v>
@@ -31308,19 +31308,19 @@
         <v>104.7010786217191</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.62614966150269</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R5" t="n">
-        <v>45.73624450393554</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S5" t="n">
-        <v>16.5914818479841</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T5" t="n">
         <v>3.187239135032381</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05824765980641697</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,19 +31360,19 @@
         <v>0.3895655690944507</v>
       </c>
       <c r="H6" t="n">
-        <v>3.762383259412195</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I6" t="n">
-        <v>13.41267419908525</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J6" t="n">
         <v>36.80540317484019</v>
       </c>
       <c r="K6" t="n">
-        <v>62.90629630416838</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L6" t="n">
-        <v>84.58527850009115</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
@@ -31381,10 +31381,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888887</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>74.38993748786928</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q6" t="n">
         <v>49.72770317072322</v>
@@ -31393,7 +31393,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S6" t="n">
-        <v>7.236009583837708</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T6" t="n">
         <v>1.570222622797369</v>
@@ -31439,10 +31439,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H7" t="n">
-        <v>2.903759233310579</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I7" t="n">
-        <v>9.821713234960523</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J7" t="n">
         <v>23.09052715486335</v>
@@ -31451,16 +31451,16 @@
         <v>37.9448292451014</v>
       </c>
       <c r="L7" t="n">
-        <v>48.55631748625888</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M7" t="n">
-        <v>51.19582869118024</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N7" t="n">
         <v>49.97850631320755</v>
       </c>
       <c r="O7" t="n">
-        <v>46.16323983590273</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P7" t="n">
         <v>39.50062662572996</v>
@@ -31469,10 +31469,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R7" t="n">
-        <v>14.68506458891013</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S7" t="n">
-        <v>5.691724386765209</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T7" t="n">
         <v>1.395467116212649</v>
@@ -31521,7 +31521,7 @@
         <v>7.939264924832774</v>
       </c>
       <c r="I8" t="n">
-        <v>29.88683129643508</v>
+        <v>29.88683129643507</v>
       </c>
       <c r="J8" t="n">
         <v>65.79618566229962</v>
@@ -31533,7 +31533,7 @@
         <v>122.3361942756547</v>
       </c>
       <c r="M8" t="n">
-        <v>136.1225877927541</v>
+        <v>136.1225877927542</v>
       </c>
       <c r="N8" t="n">
         <v>138.325193575025</v>
@@ -31597,7 +31597,7 @@
         <v>0.4147815187027039</v>
       </c>
       <c r="H9" t="n">
-        <v>4.005916246418219</v>
+        <v>4.00591624641822</v>
       </c>
       <c r="I9" t="n">
         <v>14.2808549202466</v>
@@ -31630,7 +31630,7 @@
         <v>25.7528385033135</v>
       </c>
       <c r="S9" t="n">
-        <v>7.704384788183989</v>
+        <v>7.70438478818399</v>
       </c>
       <c r="T9" t="n">
         <v>1.671860595121863</v>
@@ -31691,13 +31691,13 @@
         <v>51.69928943252704</v>
       </c>
       <c r="M10" t="n">
-        <v>54.50965193133566</v>
+        <v>54.50965193133567</v>
       </c>
       <c r="N10" t="n">
         <v>53.2135342434712</v>
       </c>
       <c r="O10" t="n">
-        <v>49.15131173394463</v>
+        <v>49.15131173394464</v>
       </c>
       <c r="P10" t="n">
         <v>42.05743833987644</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M11" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N11" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O11" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P11" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T11" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U11" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I12" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J12" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K12" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L12" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O12" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P12" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S12" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I13" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K13" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L13" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M13" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O13" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R13" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S13" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P14" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U14" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L15" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K16" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L16" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278022</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604739</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P17" t="n">
-        <v>206.0941950108789</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.7681574498208</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835432</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.766823068332947</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741883</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I18" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210532</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K18" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4981403413269</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088636</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339776</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153005</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972938</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800428</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428684</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350807</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060153</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639882</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O20" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P20" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U20" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L21" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S21" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K22" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>255.9695223072434</v>
       </c>
       <c r="R44" t="n">
-        <v>148.8955609323414</v>
+        <v>148.8955609323412</v>
       </c>
       <c r="S44" t="n">
         <v>54.01401062218343</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K11" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O11" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O12" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P12" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>91.11194777739631</v>
+        <v>58.80639628711498</v>
       </c>
       <c r="M13" t="n">
-        <v>10.47239902839742</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N13" t="n">
-        <v>15.38237044188529</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O13" t="n">
-        <v>121.8916316581077</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P13" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>57.28908871075406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K14" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P15" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="M16" t="n">
-        <v>121.8916316581077</v>
+        <v>101.5896805425961</v>
       </c>
       <c r="N16" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9667172476791</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264102</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512397</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824609</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637755</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995373</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142868</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707951</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440872</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013467</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156187</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972372</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.37703670508314</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L19" t="n">
-        <v>121.8916316581077</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M19" t="n">
-        <v>121.8916316581077</v>
+        <v>93.68619030739661</v>
       </c>
       <c r="N19" t="n">
-        <v>44.30059183184187</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O19" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.28908871075402</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K20" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.37703670508315</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581077</v>
+        <v>116.9667172476793</v>
       </c>
       <c r="N22" t="n">
-        <v>44.30059183184187</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O22" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28908871075402</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>39.67178343241818</v>
       </c>
       <c r="L25" t="n">
-        <v>323.8618783848037</v>
+        <v>257.1016419631901</v>
       </c>
       <c r="M25" t="n">
         <v>354.8426939752989</v>
@@ -36530,13 +36530,13 @@
         <v>347.7463915054675</v>
       </c>
       <c r="O25" t="n">
-        <v>155.3841562006632</v>
+        <v>314.6339051341292</v>
       </c>
       <c r="P25" t="n">
         <v>249.68237715051</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.48951251185241</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.37651202035391</v>
+        <v>234.0785271513917</v>
       </c>
       <c r="K27" t="n">
-        <v>377.4401655946291</v>
+        <v>115.1961860953238</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3092779448221</v>
+        <v>305.9155655555858</v>
       </c>
       <c r="M27" t="n">
         <v>228.9562417482143</v>
@@ -36697,7 +36697,7 @@
         <v>70.90170767086813</v>
       </c>
       <c r="R27" t="n">
-        <v>55.0643232424954</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>206.1920589300761</v>
       </c>
       <c r="L28" t="n">
-        <v>221.0301541579033</v>
+        <v>323.8618783848037</v>
       </c>
       <c r="M28" t="n">
-        <v>354.8426939752989</v>
+        <v>76.36762295656366</v>
       </c>
       <c r="N28" t="n">
-        <v>79.71075322810714</v>
+        <v>255.3541000199429</v>
       </c>
       <c r="O28" t="n">
         <v>314.6339051341292</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>83.49938900420534</v>
+        <v>83.49938900420604</v>
       </c>
       <c r="K29" t="n">
         <v>158.4571076789772</v>
@@ -36922,7 +36922,7 @@
         <v>228.9562417482143</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9086748034193</v>
+        <v>244.4762535960585</v>
       </c>
       <c r="O30" t="n">
         <v>209.059255304021</v>
@@ -36931,7 +36931,7 @@
         <v>155.0950560395515</v>
       </c>
       <c r="Q30" t="n">
-        <v>182.7132659628122</v>
+        <v>333.1456871701744</v>
       </c>
       <c r="R30" t="n">
         <v>55.0643232424954</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.09733807313679</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>206.1920589300761</v>
       </c>
       <c r="L31" t="n">
-        <v>299.8290279231718</v>
+        <v>323.8618783848037</v>
       </c>
       <c r="M31" t="n">
-        <v>354.8426939752989</v>
+        <v>332.1724208259321</v>
       </c>
       <c r="N31" t="n">
         <v>347.7463915054675</v>
       </c>
       <c r="O31" t="n">
-        <v>60.28890560335255</v>
+        <v>314.6339051341292</v>
       </c>
       <c r="P31" t="n">
-        <v>249.68237715051</v>
+        <v>39.07213838060594</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>209.059255304021</v>
       </c>
       <c r="P33" t="n">
-        <v>155.0950560395515</v>
+        <v>220.6370204078189</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.5079952816309</v>
+        <v>70.90170767086813</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>55.0643232424954</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>206.1920589300761</v>
       </c>
       <c r="L34" t="n">
-        <v>323.8618783848037</v>
+        <v>301.1916052354362</v>
       </c>
       <c r="M34" t="n">
         <v>354.8426939752989</v>
       </c>
       <c r="N34" t="n">
-        <v>114.4658795861961</v>
+        <v>347.7463915054675</v>
       </c>
       <c r="O34" t="n">
         <v>314.6339051341292</v>
       </c>
       <c r="P34" t="n">
-        <v>249.68237715051</v>
+        <v>39.07213838060594</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>37.37651202035391</v>
+        <v>234.0785271513917</v>
       </c>
       <c r="K36" t="n">
         <v>115.1961860953238</v>
@@ -37405,10 +37405,10 @@
         <v>155.0950560395515</v>
       </c>
       <c r="Q36" t="n">
-        <v>388.2100104126696</v>
+        <v>136.4436720391364</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>55.0643232424954</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>45.09733807313679</v>
       </c>
       <c r="K37" t="n">
-        <v>39.67178343241818</v>
+        <v>206.1920589300761</v>
       </c>
       <c r="L37" t="n">
-        <v>323.8618783848037</v>
+        <v>313.5196666697568</v>
       </c>
       <c r="M37" t="n">
         <v>354.8426939752989</v>
       </c>
       <c r="N37" t="n">
-        <v>347.7463915054675</v>
+        <v>79.71075322810714</v>
       </c>
       <c r="O37" t="n">
         <v>314.6339051341292</v>
       </c>
       <c r="P37" t="n">
-        <v>137.8248026557605</v>
+        <v>249.68237715051</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>228.9562417482143</v>
       </c>
       <c r="N39" t="n">
-        <v>310.0182179643255</v>
+        <v>310.0182179643269</v>
       </c>
       <c r="O39" t="n">
         <v>209.059255304021</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>133.8825689037768</v>
+        <v>206.1920589300761</v>
       </c>
       <c r="L40" t="n">
-        <v>70.4013439799788</v>
+        <v>90.58136646553304</v>
       </c>
       <c r="M40" t="n">
         <v>354.8426939752989</v>
@@ -37721,7 +37721,7 @@
         <v>249.68237715051</v>
       </c>
       <c r="Q40" t="n">
-        <v>92.48951251185241</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0785271513917</v>
+        <v>37.37651202035391</v>
       </c>
       <c r="K42" t="n">
         <v>115.1961860953238</v>
@@ -37879,10 +37879,10 @@
         <v>155.0950560395515</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.4436720391362</v>
+        <v>388.2100104126689</v>
       </c>
       <c r="R42" t="n">
-        <v>55.0643232424954</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.09733807313679</v>
       </c>
       <c r="K43" t="n">
-        <v>183.5217857807093</v>
+        <v>206.1920589300761</v>
       </c>
       <c r="L43" t="n">
         <v>323.8618783848037</v>
       </c>
       <c r="M43" t="n">
-        <v>354.8426939752989</v>
+        <v>76.36762295656366</v>
       </c>
       <c r="N43" t="n">
-        <v>347.7463915054675</v>
+        <v>255.354100019942</v>
       </c>
       <c r="O43" t="n">
         <v>314.6339051341292</v>
       </c>
       <c r="P43" t="n">
-        <v>39.07213838060594</v>
+        <v>249.68237715051</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>92.48951251185241</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>111.4708238888512</v>
       </c>
       <c r="R44" t="n">
-        <v>8.764961353155513</v>
+        <v>8.7649613531553</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>209.059255304021</v>
       </c>
       <c r="P45" t="n">
-        <v>155.0950560395515</v>
+        <v>220.6370204078189</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.5079952816313</v>
+        <v>70.90170767086813</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>55.0643232424954</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>45.09733807313679</v>
       </c>
       <c r="K46" t="n">
-        <v>39.67178343241818</v>
+        <v>206.1920589300761</v>
       </c>
       <c r="L46" t="n">
         <v>323.8618783848037</v>
       </c>
       <c r="M46" t="n">
-        <v>354.8426939752989</v>
+        <v>76.36762295656366</v>
       </c>
       <c r="N46" t="n">
-        <v>347.7463915054675</v>
+        <v>255.354100019942</v>
       </c>
       <c r="O46" t="n">
         <v>314.6339051341292</v>
       </c>
       <c r="P46" t="n">
-        <v>137.8248026557602</v>
+        <v>249.68237715051</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>92.48951251185241</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
